--- a/template/evidence.xlsx
+++ b/template/evidence.xlsx
@@ -1,39 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panxinyang/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84040FF-46E7-7B44-8EDE-D6B67B33A056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="24760" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Info"/>
-    <sheet r:id="rId2" sheetId="2" name="A1"/>
-    <sheet r:id="rId3" sheetId="3" name="A2"/>
-    <sheet r:id="rId4" sheetId="4" name="A3"/>
-    <sheet r:id="rId5" sheetId="5" name="A4"/>
-    <sheet r:id="rId6" sheetId="6" name="A5"/>
-    <sheet r:id="rId7" sheetId="7" name="A6"/>
-    <sheet r:id="rId8" sheetId="8" name="A7"/>
-    <sheet r:id="rId9" sheetId="9" name="A8"/>
-    <sheet r:id="rId10" sheetId="10" name="A9"/>
-    <sheet r:id="rId11" sheetId="11" name="A10"/>
-    <sheet r:id="rId12" sheetId="12" name="A11"/>
-    <sheet r:id="rId13" sheetId="13" name="A12"/>
-    <sheet r:id="rId14" sheetId="14" name="A13"/>
-    <sheet r:id="rId15" sheetId="15" name="A14"/>
-    <sheet r:id="rId16" sheetId="16" name="A15"/>
-    <sheet r:id="rId17" sheetId="17" name="A16"/>
-    <sheet r:id="rId18" sheetId="18" name="A17"/>
-    <sheet r:id="rId19" sheetId="19" name="A18"/>
-    <sheet r:id="rId20" sheetId="20" name="A19"/>
-    <sheet r:id="rId21" sheetId="21" name="A20"/>
-    <sheet r:id="rId22" sheetId="22" name="B1"/>
-    <sheet r:id="rId23" sheetId="23" name="B2"/>
-    <sheet r:id="rId24" sheetId="24" name="B5"/>
-    <sheet r:id="rId25" sheetId="25" name="B6"/>
+    <sheet name="Info" sheetId="1" r:id="rId1"/>
+    <sheet name="A1" sheetId="2" r:id="rId2"/>
+    <sheet name="A2" sheetId="3" r:id="rId3"/>
+    <sheet name="A3" sheetId="4" r:id="rId4"/>
+    <sheet name="A4" sheetId="5" r:id="rId5"/>
+    <sheet name="A5" sheetId="6" r:id="rId6"/>
+    <sheet name="A6" sheetId="7" r:id="rId7"/>
+    <sheet name="A7" sheetId="8" r:id="rId8"/>
+    <sheet name="A8" sheetId="9" r:id="rId9"/>
+    <sheet name="A9" sheetId="10" r:id="rId10"/>
+    <sheet name="A10" sheetId="11" r:id="rId11"/>
+    <sheet name="A11" sheetId="12" r:id="rId12"/>
+    <sheet name="A12" sheetId="13" r:id="rId13"/>
+    <sheet name="A13" sheetId="14" r:id="rId14"/>
+    <sheet name="A14" sheetId="15" r:id="rId15"/>
+    <sheet name="A15" sheetId="16" r:id="rId16"/>
+    <sheet name="A16" sheetId="17" r:id="rId17"/>
+    <sheet name="A17" sheetId="18" r:id="rId18"/>
+    <sheet name="A18" sheetId="19" r:id="rId19"/>
+    <sheet name="A19" sheetId="20" r:id="rId20"/>
+    <sheet name="A20" sheetId="21" r:id="rId21"/>
+    <sheet name="B1" sheetId="22" r:id="rId22"/>
+    <sheet name="B2" sheetId="23" r:id="rId23"/>
+    <sheet name="B5" sheetId="24" r:id="rId24"/>
+    <sheet name="B6" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -115,40 +121,47 @@
     <t>Community</t>
   </si>
   <si>
-    <t>team name</t>
-  </si>
-  <si>
-    <t>addr1</t>
-  </si>
-  <si>
-    <t>addr2</t>
-  </si>
-  <si>
-    <t>addr3</t>
-  </si>
-  <si>
-    <t>addr4</t>
-  </si>
-  <si>
-    <t>addr5</t>
-  </si>
-  <si>
-    <t>discord#1234</t>
-  </si>
-  <si>
-    <t>set none if no community</t>
+    <t>uptick1q463scpyl2uje3uajk7pcpe0xmt0hg8htevn7f</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>omniflix1w3t6kvkvhudyrcvveu9yzyh3sv7ykpstlsp35d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>panxinyang#6091</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>juno1w3t6kvkvhudyrcvveu9yzyh3sv7ykpst5unny0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stars1w3t6kvkvhudyrcvveu9yzyh3sv7ykpstkj84gz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iaa1w3t6kvkvhudyrcvveu9yzyh3sv7ykpsthvsepz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>panxinyang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -157,6 +170,19 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -168,12 +194,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd9d9d9"/>
+        <fgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -187,16 +213,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -211,35 +237,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -250,10 +274,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -291,71 +315,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -383,7 +407,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -406,11 +430,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -419,13 +443,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -435,7 +459,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -444,7 +468,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -453,7 +477,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -461,10 +485,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -529,27 +553,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -575,39 +601,43 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
+    </row>
+    <row r="3" spans="1:8" ht="15">
+      <c r="E3" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -615,13 +645,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -629,7 +659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -638,12 +668,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -651,13 +682,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -665,7 +696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -674,12 +705,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -687,13 +719,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -701,7 +733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -710,12 +742,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -723,13 +756,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -737,7 +770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -746,12 +779,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -759,13 +793,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,7 +807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -781,25 +815,24 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -807,13 +840,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,7 +854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -829,25 +862,24 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -855,13 +887,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -869,7 +901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -877,25 +909,24 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -903,13 +934,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,7 +948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -925,25 +956,24 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -951,13 +981,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,7 +995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -973,25 +1003,24 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -999,13 +1028,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1021,25 +1050,24 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1047,13 +1075,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1070,12 +1097,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1083,13 +1111,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1105,25 +1133,24 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1131,13 +1158,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1145,7 +1172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1153,25 +1180,24 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1179,33 +1205,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.4">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1213,33 +1240,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1247,33 +1275,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1281,33 +1310,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1315,14 +1345,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="16.005" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1333,7 +1362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1345,12 +1374,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1358,15 +1388,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1380,7 +1409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1395,12 +1424,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1408,15 +1438,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1445,12 +1474,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1458,15 +1488,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1480,7 +1509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1495,12 +1524,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1508,15 +1538,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="14.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1545,12 +1575,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1558,13 +1589,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1572,7 +1603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1581,12 +1612,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1594,13 +1626,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1608,7 +1640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1617,6 +1649,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/template/evidence.xlsx
+++ b/template/evidence.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">Community</t>
   </si>
   <si>
-    <t xml:space="preserve">Kleomedes</t>
+    <t xml:space="preserve">team name</t>
   </si>
   <si>
     <t xml:space="preserve">addr1</t>
@@ -948,7 +948,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1267,7 +1267,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.01"/>
   </cols>
   <sheetData>
@@ -1317,7 +1317,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.43"/>
   </cols>
@@ -1374,7 +1374,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.43"/>
   </cols>
@@ -1431,7 +1431,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.43"/>
   </cols>
@@ -1488,7 +1488,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.43"/>
